--- a/target/classes/TPL_SmokeSuite.xlsx
+++ b/target/classes/TPL_SmokeSuite.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2BAEE152-CDBA-4310-8A5C-8352D9DE0B54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0CED9661-8320-4532-A891-FEB04EC7A0BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="7155" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="465" windowWidth="7185" windowHeight="14265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O26"/>
+  <oleSize ref="A1:D25"/>
 </workbook>
 </file>
 
@@ -893,7 +893,7 @@
     <t>createcasebtn2</t>
   </si>
   <si>
-    <t>Atos!123</t>
+    <t>Atos!120</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5020,7 +5020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
